--- a/plantillas-prueba.xlsx
+++ b/plantillas-prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ccdf230214d9353/Escritorio/Desarrollo-Web/BLUE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E77BAEF8-F018-47B6-A949-722BAD9D99E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE1E5B5-5CCB-42AA-A418-41DD699632B6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{E77BAEF8-F018-47B6-A949-722BAD9D99E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E2A3A6-E92B-4B25-A203-3EC4C180740A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EDDCFAD2-F9FF-4C56-B6CB-C681F95E30EB}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{EDDCFAD2-F9FF-4C56-B6CB-C681F95E30EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>RZ-DOCUMENTACION</t>
   </si>
@@ -84,6 +84,203 @@
   </si>
   <si>
     <t>según puedo ver en el sistema su pedido esta con problemas para la entrega debido a datos faltantes o erróneos en la dirección. Le tendré que pedir que me confirme los datos de entrega como dirección, comuna, referencia y fono de contacto por favor 🚚</t>
+  </si>
+  <si>
+    <t>EN REPARTO</t>
+  </si>
+  <si>
+    <t>su pedido se encuentra en reparto el día de hoy, y será entregado durante el día hasta las 22:00 horas aproximadamente, dicho horario se puede extender dependiendo de la ruta del repartidor, no contamos con una hora especifica ni coordinable para cada envío, por lo que pueden acudir en cualquier momento dentro del rango horario informado.</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alguna referencia por favor para facilitar la entrega al repartidor, Ejemplo: Casa roja al lado de almacén </t>
+  </si>
+  <si>
+    <t>CUJ</t>
+  </si>
+  <si>
+    <t>GE/FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx, puedo ver que su pedido ingreso al sistema con fecha xx/xx pero aun no lo tenemos de manera física en nuestras bodega, esto quiere decir que su remitente aun no despacha su carga para el envío. Le recomiendo ponerse en contacto con su remitente para consultas sobre su pedido por favor.   </t>
+  </si>
+  <si>
+    <t>DATOS INGRESADOS</t>
+  </si>
+  <si>
+    <t>Acabo de dejar los datos ingresados, esta confirmación tiene un plazo de 48 a 72 horas hábiles, después de ese tiempo su pedido sale a reparto, puede realizar el seguimiento en la pagina web https://www.blue.cl/seguimiento/</t>
+  </si>
+  <si>
+    <t>RETIRO EN BODEGA</t>
+  </si>
+  <si>
+    <t>Nuestras bodegas no atienden de manera presencial por políticas de la empresa, por lo que debes esperar a que salga a reparto hacia la dirección indicada al momento de la compra.</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>acabo de revisar el estado de su pedido y este indica que no podrá ser entregado. Le sugiero tomar contacto con la empresa remitente para que le puedan dar una solución oportuna. Ya que ha quedado retenido en aduanas desde el xx/xx y ha excedido los plazos para poder realizar gestiones por nuestra parte.</t>
+  </si>
+  <si>
+    <t>PEDIDO ENTREGADO</t>
+  </si>
+  <si>
+    <t>puedo ver en el sistema que su envío ha sido entregado el día 20/10, ¿en que puedo ayudarle?</t>
+  </si>
+  <si>
+    <t>NUEVOINTENTODENTREGA()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veo en el sistema que su envío tuvo un intento de entrega el día de ayer 02/10 pero no pudo concretarse la entrega debido a que no se pudo acceder a su dirección, lamento los inconvenientes. Le informo que en estos casos se realiza un nuevo intento de entrega entre 24 a 48hrs desde el momento del primer intento de entrega. </t>
+  </si>
+  <si>
+    <t>PUNTO-BLUE</t>
+  </si>
+  <si>
+    <t>puede buscar un punto blue que le acomode en la siguiente direccion https://www.blue.cl/punto-blue-express/</t>
+  </si>
+  <si>
+    <t>CAMBIAR DIRECCION</t>
+  </si>
+  <si>
+    <t>entiendo que necesita cambiar la dirección de entrega, para esto tendré que pedirle que me confirme los datos(dirección y comuna) que ya tiene su envío como medida de seguridad por favor. Luego puede indicarme los nuevos datos para la entrega.</t>
+  </si>
+  <si>
+    <t>TR(Carga detenida en bodega)</t>
+  </si>
+  <si>
+    <t>XXX , puedo ver en el sistema que su envío ha presentado retrasos para la entrega, lamento este suceso y le pido disculpas por el inconveniente. Hare las gestiones internas en el sistema para que su carga pueda ser agilizada y entregada a la brevedad posible.</t>
+  </si>
+  <si>
+    <t>NH-NADIE EN CASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> veo en el sistema que su envío tuvo un intento de entrega el día de ayer 04/10 pero no pudo concretarse la entrega debido a que se indico que no había nadie en casa que recibiera, lamento los inconvenientes. Le informo que en estos casos se realiza un nuevo intento de entrega entre 24 a 48hrs desde el momento del primer intento de entrega.</t>
+  </si>
+  <si>
+    <t>DESCONOCIMIENTO INGRESADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien xxx le comento que he dejado ingresado el requerimiento de desconocimiento de entrega para su envío. El numero de caso es xxxxxxx que registra tanto esta conversación como el desconocimiento de entrega y tendrá un tiempo de respuesta de 48 a 72hrs </t>
+  </si>
+  <si>
+    <t>DESC.FUERA DE PLAZO</t>
+  </si>
+  <si>
+    <t>Le indico que para hacer desconocimiento de entrega contamos con un plazo de 48hrs luego del momento del envío, como ya hemos excedido ese plazo tendré que pedirle se pueda comunicar con su remitente para gestionar este caso por favor.</t>
+  </si>
+  <si>
+    <t>DESCONOCIMIENTO EN CURSO</t>
+  </si>
+  <si>
+    <t>Su caso ***** se encuentra en revisión por el área responsable y tiene un plazo estimado de 48 a 72 horas hábiles para su resolución.
+De no presentar avances en su proceso en el plazo indicado, debe contactarse con su remitente para conocimiento de su caso e indicaciones de los pasos a seguir ante este inconveniente.</t>
+  </si>
+  <si>
+    <t>VI-VIAJANDO</t>
+  </si>
+  <si>
+    <t>actualmente su pedido se encuentra viajando desde el país de origen hasta nuestro país 🛫. El tiempo estimado para que llegue a nuestras instalaciones es de 10 días aproximadamente. Una vez llegue comenzara sus movimientos normales de distribución en Blue Express</t>
+  </si>
+  <si>
+    <t>NUMERO DE SEGUIMIENTO</t>
+  </si>
+  <si>
+    <t>Por favor considere que los numero de seguimiento que usa Blue Express contienen 10 digitos y suelen comenzar en 7, 8 ò 9</t>
+  </si>
+  <si>
+    <t>REVISAR OTRA OS</t>
+  </si>
+  <si>
+    <t>Indíqueme el otro numero de seguimiento por favor, considere que los numero de seguimiento que usa Blue Express contienen 10 dígitos y suelen comenzar en 7, 8 ò 9</t>
+  </si>
+  <si>
+    <t>HORARIO DE ENTREGA-SAMEDAY</t>
+  </si>
+  <si>
+    <t>Los horarios de entrega para este tipo de envios son de 14hrs a 23:30hrs</t>
+  </si>
+  <si>
+    <t>DIRECCION INUBICABLE</t>
+  </si>
+  <si>
+    <t>puedo ver que su envío estuvo en reparto el día de hoy 03/10, pero no se pudo concretar ya que se marco como dirección inubicable. Le tendré que pedir que me confirme los datos de entrega como dirección, comuna, referencia y fono de contacto por favor 🚚🗺☎</t>
+  </si>
+  <si>
+    <t>LI-LIBERADO DE ADUANAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puedo ver en el sistema que su envío ha sido liberado de aduanas el día de hoy 03/10 por lo que pasara a nuestras bodegas para comenzar su proceso de distribución normal. Puede ver el seguimiento a través de nuestra página https://www.blue.cl/seguimiento/, una vez que el último movimiento del historial diga en reparto quiere decir que ese mismo día se acercarán a la dirección para concretar la entrega.
+</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>acabo de revisar y su pedido no pudo ser entregado ayer por que el camión donde iba su pedido se quedo sin tiempo para realizar la entrega, en este caso su pedido vuelve a salir a reparto en un plazo de 24 a 48 horas.</t>
+  </si>
+  <si>
+    <t>AD-DOCUMENTACION ADUANA</t>
+  </si>
+  <si>
+    <t>acabo de realizar el ingreso de datos, no tenemos un plazo definido para la resolución de la gestión, Te sugiero realizar el seguimiento a través de nuestra página https://www.blue.cl/seguimiento/, una vez que el último movimiento del historial diga en reparto quiere decir que ese mismo día se acercarán a tu domicilio para concretar la entrega.</t>
+  </si>
+  <si>
+    <t>DR FUERA DE PLAZO</t>
+  </si>
+  <si>
+    <t>su pedido se encuentra en devolución al remitente desde el 15/09 como ya se han excedido los plazos para realizar gestiones por nuestra parte, tendré que pedirle se pueda comunicar con su remitente en este caso Aliexpress para que puedan darle una solución a este tema</t>
+  </si>
+  <si>
+    <t>SOLICITA LLAMADO</t>
+  </si>
+  <si>
+    <t>Entiendo que solicita que le puedan llamar al momento de la entrega. Le pido su numero de contacto por favor - Gracias, dejare su numero de contacto al área encargada de reparto para que puedan comunicarse con usted al momento de la entrega------------Le recomiendo poder comunicarse nuevamente cuando su envio este en reparto solicitando que puedan llamarlo, es la forma mas factible de gestionar una llamada al momento de la entrega</t>
+  </si>
+  <si>
+    <t>RRP</t>
+  </si>
+  <si>
+    <t>puedo ver que su envío ha presentado incidencias para la entrega el día 05/10 por lo cual tendré que pedirle que se pueda comunicar con su remitente para poder gestionar los plazos a seguir, ellos podrán entregarle mayor información y se comunicaran de forma interna con Blue Express. Lamento las molestias que esto pueda ocasionar</t>
+  </si>
+  <si>
+    <t>OBLIGACION DE LLAMADA</t>
+  </si>
+  <si>
+    <t>Le comento que por políticas de la empresa no siempre se realiza un llamado, dado que el Courier trabaja con un teléfono personal no siempre puede realizar un llamado</t>
+  </si>
+  <si>
+    <t>DLV</t>
+  </si>
+  <si>
+    <t>puedo ver que su envío ha sido devuelto al remitente, ya que se encontraba en este estado de devolución desde el 01/09 y no se han realizado gestiones para detener este proceso. En este caso le pido que se pueda comunicar con su remitente Aliexpress para poder obtener ayuda y una solución a su caso por favor.</t>
+  </si>
+  <si>
+    <t>DM -CARGA DAÑADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le informo que su envío ha presentado una incidencia por lo cual no podrá ser entregado, en este caso debo pedirle que se pueda comunicar con su remitente (quien hace el envío) para que pueda recibir mas información al respecto por favor. </t>
+  </si>
+  <si>
+    <t>PS INGRESADA</t>
+  </si>
+  <si>
+    <t>he ingresado el cambio de dirección, le indico el numero PS-000092470 que registra esta gestión en el sistema, esto no tiene un plazo definido por lo que sugiero pueda hacer seguimiento a su envío en https://www.blue.cl/seguimiento/ para estar al tanto de los movimientos que registre en sistema.</t>
+  </si>
+  <si>
+    <t>Problemas DI:según puedo ver en el sistema su pedido estuvo en reparto el día de hoy pero no pudo ser entregado ya que esta con problemas para la entrega debido a datos faltantes o erróneos en la dirección. Le tendré que pedir que me confirme los datos de entrega como dirección, comuna, referencia y fono de contacto por favor 🚚🗺☎</t>
+  </si>
+  <si>
+    <t>Solicita Llamado: Me indica su numero de contacto para dejar registro al área correspondiente y solicitar que puedan comunicarse con Ud. al momento de la entrega por favor</t>
+  </si>
+  <si>
+    <t>Ya ingresado:XXX, puedo ver que su envío se encuentra retenido en aduanas por problemas con el Rut, entiendo que ya ha ingresado su Rut con fecha xx/xx, le comento que para estas gestiones aduanas tiene un plazo de 12 días hábiles para la liberación de la carga.</t>
+  </si>
+  <si>
+    <t>Fuera de plazo:xxxx, su envío se encuentra retenido en Aduanas por problemas con el Rut con fecha xx/xx, como ya ha excedido los plazos para nuestras gestiones tendré que pedirle que se pueda comunicar con su remitente, que en este caso es XXX, para que puedan darle solución a este caso.</t>
   </si>
 </sst>
 </file>
@@ -119,11 +316,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,76 +636,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B25BDE2-8416-4E0A-9CD4-FC2AEE303C94}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/plantillas-prueba.xlsx
+++ b/plantillas-prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ccdf230214d9353/Escritorio/Desarrollo-Web/BLUE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{E77BAEF8-F018-47B6-A949-722BAD9D99E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E2A3A6-E92B-4B25-A203-3EC4C180740A}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{E77BAEF8-F018-47B6-A949-722BAD9D99E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7846808-0AF9-438E-87CE-1EEBAC4B62CC}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{EDDCFAD2-F9FF-4C56-B6CB-C681F95E30EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EDDCFAD2-F9FF-4C56-B6CB-C681F95E30EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -316,8 +316,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B25BDE2-8416-4E0A-9CD4-FC2AEE303C94}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,7 +683,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -688,11 +691,13 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -706,7 +711,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -714,6 +719,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -975,6 +981,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>